--- a/biology/Zoologie/Chersonesometrus_fulvipes/Chersonesometrus_fulvipes.xlsx
+++ b/biology/Zoologie/Chersonesometrus_fulvipes/Chersonesometrus_fulvipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chersonesometrus fulvipes est une espèce de scorpions de la famille des Scorpionidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Inde[1]. Elle se rencontre au Karnataka, au Maharashtra, au Gujarat, au Rajasthan, au Madhya Pradesh, en Uttar Pradesh, à Delhi et en Haryana.
-Sa présence au Pakistan est incertaine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Inde. Elle se rencontre au Karnataka, au Maharashtra, au Gujarat, au Rajasthan, au Madhya Pradesh, en Uttar Pradesh, à Delhi et en Haryana.
+Sa présence au Pakistan est incertaine.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chersonesometrus fulvipes mesure de 70 à 100 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chersonesometrus fulvipes mesure de 70 à 100 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus fulvipes par C. L. Koch en 1837. Elle est placée dans le genre Heterometrus par Kraepelin en 1899[3] puis dans le genre Chersonesometrus par Prendini et Loria en 2020[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus fulvipes par C. L. Koch en 1837. Elle est placée dans le genre Heterometrus par Kraepelin en 1899 puis dans le genre Chersonesometrus par Prendini et Loria en 2020.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C. L. Koch, 1837 : Die Arachniden. Nurnberg, C.H. Zeh’sche Buchhandlung, vol. 4, no 1/5, p. 1-108 (texte intégral).</t>
         </is>
